--- a/application/app-data/warnsClean.xlsx
+++ b/application/app-data/warnsClean.xlsx
@@ -11492,7 +11492,7 @@
         <v>3120</v>
       </c>
       <c r="M40" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -24159,7 +24159,7 @@
         <v>3120</v>
       </c>
       <c r="M351" t="s">
-        <v>3157</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="352" spans="1:13">
@@ -24200,7 +24200,7 @@
         <v>3120</v>
       </c>
       <c r="M352" t="s">
-        <v>3157</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="353" spans="1:13">
@@ -24651,7 +24651,7 @@
         <v>3128</v>
       </c>
       <c r="M363" t="s">
-        <v>3157</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="364" spans="1:13">
@@ -24856,7 +24856,7 @@
         <v>3126</v>
       </c>
       <c r="M368" t="s">
-        <v>3157</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="369" spans="1:13">
